--- a/src/main/resources/datas/yatrafile.xlsx
+++ b/src/main/resources/datas/yatrafile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>destination</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Africa</t>
   </si>
   <si>
-    <t>Jan-2021</t>
-  </si>
-  <si>
     <t>4 To 6 night(s)</t>
   </si>
   <si>
@@ -46,11 +43,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -79,7 +76,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,7 +90,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,29 +142,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -145,31 +159,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,23 +194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +211,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +233,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,169 +335,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,15 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -468,6 +456,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,155 +518,153 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1059,7 +1056,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1085,14 +1082,14 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
